--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail5 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>1.385268053025585e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8338888056693319</v>
+        <v>4.768528652905741e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.2537448859460061</v>
+        <v>1.74805878987405e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.768528652905741e-07</v>
+        <v>0.004060123557656092</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.74805878987405e-06</v>
+        <v>0.1680919025392714</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.004060123557656092</v>
+        <v>0.02824485053652686</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1680919025392714</v>
+        <v>1.938997263144126</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02824485053652686</v>
+        <v>3.498673701678185</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.968286044307486</v>
+        <v>6.586011585159824</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.498673701678185</v>
+        <v>4.017589414776336e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.586011585159824</v>
+        <v>31002934502.60329</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.017589414776336e-18</v>
+        <v>3.890358347828713e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>31002934502.60329</v>
+        <v>3861.634419045741</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.890358347828713e-09</v>
+        <v>5.027619591512844e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3861.634419045741</v>
+        <v>10.4971956742958</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.027619591512844e-05</v>
+        <v>1.17803389743174</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.4971956742958</v>
+        <v>0.005539990187628316</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.17803389743174</v>
+        <v>6.672866282623135</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005539990187628316</v>
+        <v>0.9651404747930493</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.672866282623135</v>
+        <v>0.7332571688151897</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9651404747930493</v>
+        <v>457</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7332571688151897</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>457</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>11.3599084524463</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>1.373322338638505e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8543423545480346</v>
+        <v>4.768528652905741e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1672438246561248</v>
+        <v>1.749244632158784e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.768528652905741e-07</v>
+        <v>0.0125657243595615</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.749244632158784e-06</v>
+        <v>0.1535128800364393</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0125657243595615</v>
+        <v>0.02371062458510462</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1535128800364393</v>
+        <v>1.941727905946348</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02371062458510462</v>
+        <v>3.583044481439284</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.974239277270443</v>
+        <v>6.039605168499419</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.583044481439284</v>
+        <v>5.010281608296895e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.039605168499419</v>
+        <v>24800950637.01822</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.010281608296895e-18</v>
+        <v>4.871723460257302e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>24800950637.01822</v>
+        <v>3081.759847669528</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.871723460257302e-09</v>
+        <v>4.834783240830397e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3081.759847669528</v>
+        <v>11.32119328984069</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.834783240830397e-05</v>
+        <v>1.103723750109385</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.32119328984069</v>
+        <v>0.006196713517446831</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.103723750109385</v>
+        <v>6.751036006431808</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006196713517446831</v>
+        <v>0.9652875970139455</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.751036006431808</v>
+        <v>0.7431102295342904</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9652875970139455</v>
+        <v>411</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7431102295342904</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>411</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>11.32281951344139</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>1.346067224014522e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.8733097008295385</v>
+        <v>4.768528652905741e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.02930066614740712</v>
+        <v>1.751392026616283e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.768528652905741e-07</v>
+        <v>0.0186147003146583</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.751392026616283e-06</v>
+        <v>0.1479245045576924</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0186147003146583</v>
+        <v>0.02222194102264275</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1479245045576924</v>
+        <v>1.934665347585751</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02222194102264275</v>
+        <v>2.981784078612771</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.971106284234402</v>
+        <v>5.817453999189597</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.981784078612771</v>
+        <v>7.205153378471044e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.817453999189597</v>
+        <v>16627885451.34599</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.205153378471044e-18</v>
+        <v>7.22049608933759e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>16627885451.34599</v>
+        <v>1992.128176959191</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.22049608933759e-09</v>
+        <v>3.571007784915195e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1992.128176959191</v>
+        <v>12.32019369712905</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.571007784915195e-05</v>
+        <v>1.028415086720268</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.32019369712905</v>
+        <v>0.005420331754861615</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.028415086720268</v>
+        <v>7.168478580042352</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005420331754861615</v>
+        <v>0.9642933490564911</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.168478580042352</v>
+        <v>0.7594025493456124</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9642933490564911</v>
+        <v>363</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7594025493456124</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>363</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>12.52676266896044</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>1.304686982343961e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.869338738468121</v>
+        <v>4.768528652905741e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0932912637856802</v>
+        <v>1.754164806023037e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.768528652905741e-07</v>
+        <v>0.02292604163778313</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.754164806023037e-06</v>
+        <v>0.1485124957185122</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02292604163778313</v>
+        <v>0.02257920957686304</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1485124957185122</v>
+        <v>1.932213855914572</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02257920957686304</v>
+        <v>2.797241213293683</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.97160164670733</v>
+        <v>5.456567087044039</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.797241213293683</v>
+        <v>1.075228249201296e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.456567087044039</v>
+        <v>10936703821.09832</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.075228249201296e-17</v>
+        <v>1.092183703088935e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10936703821.09832</v>
+        <v>1286.096534828743</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.092183703088935e-08</v>
+        <v>3.951902449608356e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1286.096534828743</v>
+        <v>13.12663358869151</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.951902449608356e-05</v>
+        <v>1.028435252409122</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.12663358869151</v>
+        <v>0.006809464202746393</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.028435252409122</v>
+        <v>7.109412634117573</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006809464202746393</v>
+        <v>0.9649483758658675</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.109412634117573</v>
+        <v>0.7606849693596437</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9649483758658675</v>
+        <v>317</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7606849693596437</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>317</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>12.43007045946331</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>1.251946057197898e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.8263568679449028</v>
+        <v>4.768528652905741e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1336651457102827</v>
+        <v>1.757301299983661e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.768528652905741e-07</v>
+        <v>0.02590531336952212</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.757301299983661e-06</v>
+        <v>0.153310285874926</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02590531336952212</v>
+        <v>0.02417470797216098</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.153310285874926</v>
+        <v>1.929552219612695</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02417470797216098</v>
+        <v>2.645155502275318</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.968447272318046</v>
+        <v>4.974876642569971</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.645155502275318</v>
+        <v>1.746479422952691e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.974876642569971</v>
+        <v>6688663870.3949</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.746479422952691e-17</v>
+        <v>1.786796226094049e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6688663870.3949</v>
+        <v>781.3438828361233</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.786796226094049e-08</v>
+        <v>8.614561490261205e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>781.3438828361233</v>
+        <v>12.80137205850606</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.614561490261205e-05</v>
+        <v>1.087968771320706</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.80137205850606</v>
+        <v>0.0141171235465033</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.087968771320706</v>
+        <v>5.880737224940858</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0141171235465033</v>
+        <v>0.9648804684270123</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.880737224940858</v>
+        <v>0.8231885208008818</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9648804684270123</v>
+        <v>267</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8231885208008818</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>267</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>8.895640179723021</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>1.191508526187856e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.7324181208039277</v>
+        <v>4.766407673863021e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.03009982946894718</v>
+        <v>1.760587587193686e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.766407673863021e-07</v>
+        <v>0.02765981747239753</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.760587587193686e-06</v>
+        <v>0.1608954072329389</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02765981747239753</v>
+        <v>0.02665246955384682</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1608954072329389</v>
+        <v>1.926965832297165</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02665246955384682</v>
+        <v>2.561111800008322</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.96727502668412</v>
+        <v>4.654423796177254</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.561111800008322</v>
+        <v>2.807610837624303e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.654423796177254</v>
+        <v>4168520367.784093</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.807610837624303e-17</v>
+        <v>2.865554262326475e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4168520367.784093</v>
+        <v>487.8662395084797</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.865554262326475e-08</v>
+        <v>0.0001435142954103207</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>487.8662395084797</v>
+        <v>12.98856988769067</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001435142954103207</v>
+        <v>1.075792819100021</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.98856988769067</v>
+        <v>0.02421128467674554</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.075792819100021</v>
+        <v>4.567805417086071</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02421128467674554</v>
+        <v>0.963700982818793</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.567805417086071</v>
+        <v>0.8582431002139306</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.963700982818793</v>
+        <v>212</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8582431002139306</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>5.572304525916849</v>
       </c>
     </row>
@@ -5243,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.227664856875298</v>
+        <v>1.247712840517675</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.890029809450869</v>
@@ -5332,7 +5284,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.242010022052614</v>
+        <v>1.257650718765733</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.870137952569529</v>
@@ -5421,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.250784778963299</v>
+        <v>1.27158473972087</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.872150379709811</v>
@@ -5510,7 +5462,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.238938404556359</v>
+        <v>1.25583519385567</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.886039342177078</v>
@@ -5599,7 +5551,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.235726606136673</v>
+        <v>1.25201397819508</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.88823356307616</v>
@@ -5688,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.293272640582776</v>
+        <v>1.311854291530224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.213182078353853</v>
@@ -5777,7 +5729,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.317674393036345</v>
+        <v>1.333948632953502</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.213672400879092</v>
@@ -5866,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.330658853244317</v>
+        <v>1.352722781908291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.239138864636475</v>
@@ -5955,7 +5907,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.336760170455248</v>
+        <v>1.35767935997178</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.27726214180542</v>
@@ -6044,7 +5996,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.356033252911878</v>
+        <v>1.377724493125774</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.317507385811735</v>
@@ -6133,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.348421076487374</v>
+        <v>1.363871975082063</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.43576671803303</v>
@@ -6222,7 +6174,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.361556252000808</v>
+        <v>1.38120309474213</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.23515974245958</v>
@@ -6311,7 +6263,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.382570622873828</v>
+        <v>1.402995264016625</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.22648350413888</v>
@@ -6400,7 +6352,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.415861708374504</v>
+        <v>1.435285506776266</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.06815731613636</v>
@@ -6489,7 +6441,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.468350748122434</v>
+        <v>1.493575328650699</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.463402081341218</v>
@@ -6578,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.449292086117018</v>
+        <v>1.474208808021559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.427947081192011</v>
@@ -6667,7 +6619,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.4498658402344</v>
+        <v>1.473857600948375</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.264246942688457</v>
@@ -6756,7 +6708,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459450375248057</v>
+        <v>1.485723460720355</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.462562058773305</v>
@@ -6845,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.523268173434386</v>
+        <v>1.549989048792207</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.317733575187575</v>
@@ -6934,7 +6886,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529023877328237</v>
+        <v>1.557680580658889</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.280114698608642</v>
@@ -7023,7 +6975,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532881393895608</v>
+        <v>1.564764359696298</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.294012437248625</v>
@@ -7112,7 +7064,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.537410356369931</v>
+        <v>1.571962659852706</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.352781571531458</v>
@@ -7201,7 +7153,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520697098165527</v>
+        <v>1.553949597704288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.364522010007127</v>
@@ -7290,7 +7242,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.515679439494863</v>
+        <v>1.549314780724439</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.38462635326795</v>
@@ -7379,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511436064178885</v>
+        <v>1.539822764503095</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.381721002954906</v>
@@ -7468,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.525235044887337</v>
+        <v>1.559032141750276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.14405087884323</v>
@@ -7557,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.516680930234422</v>
+        <v>1.552236249479119</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.344176228377505</v>
@@ -7646,7 +7598,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538962452329787</v>
+        <v>1.577606739845228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.219878254263655</v>
@@ -7735,7 +7687,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.52295879400597</v>
+        <v>1.557937306536918</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.317396887402663</v>
@@ -7824,7 +7776,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495215242398201</v>
+        <v>1.52889566385386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.38343127471676</v>
@@ -7913,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.523256827958944</v>
+        <v>1.558389847437853</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.425241239670331</v>
@@ -8002,7 +7954,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532186285386875</v>
+        <v>1.567133481930954</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.359958564809672</v>
@@ -8091,7 +8043,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527210583689513</v>
+        <v>1.562331934925983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.369345382564042</v>
@@ -8180,7 +8132,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.527823353562089</v>
+        <v>1.562242627101918</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.20112999512477</v>
@@ -8269,7 +8221,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544601255571627</v>
+        <v>1.578849406494381</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.380193586038747</v>
@@ -8358,7 +8310,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.523271262088383</v>
+        <v>1.55365454663734</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.371191174207092</v>
@@ -8447,7 +8399,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.527352232140959</v>
+        <v>1.555150056662499</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.427083710501433</v>
@@ -8536,7 +8488,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.544663952826229</v>
+        <v>1.573677292199357</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.360867246802926</v>
@@ -8625,7 +8577,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.568831416228273</v>
+        <v>1.596591915305503</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.412806562539382</v>
@@ -8714,7 +8666,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576547085682281</v>
+        <v>1.605449691436643</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.528174925217137</v>
@@ -8803,7 +8755,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563017950384092</v>
+        <v>1.589901995991557</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.533536279000892</v>
@@ -8892,7 +8844,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581963992547184</v>
+        <v>1.606557367206157</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.414029452346889</v>
@@ -8981,7 +8933,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.559687214455938</v>
+        <v>1.583214964386076</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.530396408419888</v>
@@ -9070,7 +9022,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.587464252483642</v>
+        <v>1.611008692067518</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.487144475706276</v>
@@ -9159,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.597415640631844</v>
+        <v>1.617862659933613</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.529210025011856</v>
@@ -9248,7 +9200,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554762497287063</v>
+        <v>1.577995333433351</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.343966724111226</v>
@@ -9337,7 +9289,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.577942640381215</v>
+        <v>1.600009083615493</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.268215261146476</v>
@@ -9426,7 +9378,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.538563196819511</v>
+        <v>1.562339777561415</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.442263933626766</v>
@@ -9515,7 +9467,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550536244705585</v>
+        <v>1.572932222910199</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.293301275557444</v>
@@ -9604,7 +9556,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.562989436077969</v>
+        <v>1.592029317301947</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.491206412625281</v>
@@ -9693,7 +9645,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590091836751043</v>
+        <v>1.618183009013072</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.379286583661973</v>
@@ -9979,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.41811128952744</v>
+        <v>1.452912714091616</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.132458413082071</v>
@@ -10068,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.418917807363228</v>
+        <v>1.450208433731254</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.052222192473025</v>
@@ -10157,7 +10109,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.440827197594571</v>
+        <v>1.473155234448348</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.15938802567904</v>
@@ -10246,7 +10198,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.434076462743095</v>
+        <v>1.464881730364343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.155398182982033</v>
@@ -10335,7 +10287,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.395455046072772</v>
+        <v>1.420840999469446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.146204306450605</v>
@@ -10424,7 +10376,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.394495693274417</v>
+        <v>1.423165699796742</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.091150572166922</v>
@@ -10513,7 +10465,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.394817858501828</v>
+        <v>1.42696071415141</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.085101313653808</v>
@@ -10602,7 +10554,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.393300225968812</v>
+        <v>1.422062207094341</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.029612815897311</v>
@@ -10691,7 +10643,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381989951285906</v>
+        <v>1.409633009558765</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.033704122681533</v>
@@ -10780,7 +10732,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374134707092864</v>
+        <v>1.398474551311656</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.976025191555447</v>
@@ -10869,7 +10821,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.369255393102623</v>
+        <v>1.386559894466022</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.020459741279197</v>
@@ -10958,7 +10910,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.355757662600781</v>
+        <v>1.373226274923856</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.064094074539531</v>
@@ -11047,7 +10999,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.368708559462458</v>
+        <v>1.386114104085116</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.009037533738889</v>
@@ -11136,7 +11088,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.359813869633063</v>
+        <v>1.370572861054424</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.930336313170768</v>
@@ -11225,7 +11177,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372293045476705</v>
+        <v>1.370996571566346</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.794886878162221</v>
@@ -11314,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.352625123606774</v>
+        <v>1.353814456511869</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.86344561601314</v>
@@ -11403,7 +11355,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.33822607454266</v>
+        <v>1.33393700642396</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.822509180154814</v>
@@ -11492,7 +11444,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.33358072097065</v>
+        <v>1.331018662679758</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.842505671446433</v>
@@ -11581,7 +11533,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.33523827615954</v>
+        <v>1.331581897096111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.85415830607733</v>
@@ -11670,7 +11622,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.331240687228993</v>
+        <v>1.325825860245266</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.881738275289498</v>
@@ -11759,7 +11711,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.311346106803738</v>
+        <v>1.304316031963756</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.81432613398327</v>
@@ -11848,7 +11800,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.314448937769583</v>
+        <v>1.307172147911786</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.818489673160332</v>
@@ -11937,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.307731023511483</v>
+        <v>1.302031300499918</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.823072892183369</v>
@@ -12026,7 +11978,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.263188011094184</v>
+        <v>1.255175279088212</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.81770594489471</v>
@@ -12115,7 +12067,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.255404751897374</v>
+        <v>1.247744599496072</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.809436795879</v>
@@ -12204,7 +12156,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.254513865844454</v>
+        <v>1.248061093448479</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.784307718889334</v>
@@ -12293,7 +12245,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.23189482536406</v>
+        <v>1.221865503298109</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.866937349962199</v>
@@ -12382,7 +12334,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.22191556173571</v>
+        <v>1.213079672009628</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.838832970609184</v>
@@ -12471,7 +12423,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.225401722022291</v>
+        <v>1.217900945948588</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.833778322671404</v>
@@ -12560,7 +12512,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.237664837957809</v>
+        <v>1.226982845688936</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.826247375367384</v>
@@ -12649,7 +12601,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.221341601368586</v>
+        <v>1.217452283300657</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.870329506086285</v>
@@ -12738,7 +12690,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.223448142606197</v>
+        <v>1.220752383803978</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.872462221921156</v>
@@ -12827,7 +12779,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.216672511325045</v>
+        <v>1.206108421894474</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.895270499648454</v>
@@ -12916,7 +12868,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.191948722176694</v>
+        <v>1.185521000891459</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.943610690854896</v>
@@ -13005,7 +12957,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.213981749231017</v>
+        <v>1.208891744948492</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.806488436386082</v>
@@ -13094,7 +13046,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.204134084924986</v>
+        <v>1.19537878241918</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.903654159772232</v>
@@ -13183,7 +13135,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.193164159928203</v>
+        <v>1.188061159632531</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.913193330784505</v>
@@ -13272,7 +13224,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.201392648714264</v>
+        <v>1.195575612165386</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.919429531387222</v>
@@ -13361,7 +13313,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.221064052354322</v>
+        <v>1.2177250749401</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.97631158871433</v>
@@ -13450,7 +13402,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.211330109817016</v>
+        <v>1.207891607645702</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.999465663487758</v>
@@ -13539,7 +13491,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.213600118838791</v>
+        <v>1.212437611141691</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.982080732348753</v>
@@ -13628,7 +13580,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.223208046590869</v>
+        <v>1.222131064489191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.9063565462412</v>
@@ -13717,7 +13669,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.216646561180768</v>
+        <v>1.215827989807739</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.998658400192234</v>
@@ -13806,7 +13758,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.219474822141905</v>
+        <v>1.219335375896439</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.012843169025308</v>
@@ -13895,7 +13847,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.236887028732132</v>
+        <v>1.24058346467689</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.928394547466046</v>
@@ -13984,7 +13936,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.236673771656532</v>
+        <v>1.238459689718439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.993784513074496</v>
@@ -14073,7 +14025,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.229370051595828</v>
+        <v>1.230063069995059</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.007394871341137</v>
@@ -14162,7 +14114,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.2525052397568</v>
+        <v>1.257066126175865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.925058872478363</v>
@@ -14251,7 +14203,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.271732499878285</v>
+        <v>1.277306109572359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.936846921845226</v>
@@ -14340,7 +14292,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.251076307908422</v>
+        <v>1.255416269316048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.985761326942167</v>
@@ -14429,7 +14381,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.263613795126171</v>
+        <v>1.269075402893719</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.867442164390913</v>
@@ -14715,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633023077307324</v>
+        <v>1.643441161229813</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.584856927880881</v>
@@ -14804,7 +14756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.637317335388382</v>
+        <v>1.648124897326807</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.706171536654218</v>
@@ -14893,7 +14845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.65400291943503</v>
+        <v>1.661993428958861</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.581722740552936</v>
@@ -14982,7 +14934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.637623332780201</v>
+        <v>1.649629018223106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.548773839303502</v>
@@ -15071,7 +15023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.635723862739333</v>
+        <v>1.647307620474202</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.714619601111304</v>
@@ -15160,7 +15112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663619139124655</v>
+        <v>1.666104330036484</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.803184037932553</v>
@@ -15249,7 +15201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.681794031776405</v>
+        <v>1.675037052173235</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.632810017657124</v>
@@ -15338,7 +15290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685562065687057</v>
+        <v>1.67427170009</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.566260071741039</v>
@@ -15427,7 +15379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.692969983162942</v>
+        <v>1.679801258128305</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.011449298555488</v>
@@ -15516,7 +15468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.706144956058103</v>
+        <v>1.69345408526928</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.323315712891085</v>
@@ -15605,7 +15557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701772470873663</v>
+        <v>1.690957105340939</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.209626447597679</v>
@@ -15694,7 +15646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.707223984362231</v>
+        <v>1.702043513599504</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.08246412109685</v>
@@ -15783,7 +15735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.736038151069086</v>
+        <v>1.729451747271326</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.281751535031765</v>
@@ -15872,7 +15824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.743475903992306</v>
+        <v>1.732257617929545</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.949406429761728</v>
@@ -15961,7 +15913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.772406228102054</v>
+        <v>1.760522969483521</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.386555646747049</v>
@@ -16050,7 +16002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.763954923694707</v>
+        <v>1.760546157341858</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.478390834055909</v>
@@ -16139,7 +16091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.753428990339561</v>
+        <v>1.753007822158414</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.178895136880683</v>
@@ -16228,7 +16180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.758764717577964</v>
+        <v>1.761240529429785</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.392847493074458</v>
@@ -16317,7 +16269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.796033099071026</v>
+        <v>1.797824064845158</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.202052076383224</v>
@@ -16406,7 +16358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.812473534304842</v>
+        <v>1.818364922004663</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.667166761070188</v>
@@ -16495,7 +16447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.81507621209694</v>
+        <v>1.822728332143086</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.567690556859101</v>
@@ -16584,7 +16536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.816294253646107</v>
+        <v>1.827100509674775</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.431876082121289</v>
@@ -16673,7 +16625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.803249482542462</v>
+        <v>1.816360774967183</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.616777346610657</v>
@@ -16762,7 +16714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.792116611256512</v>
+        <v>1.808850536958148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.337000715653895</v>
@@ -16851,7 +16803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.788358173232415</v>
+        <v>1.802425931556131</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.1705198866854</v>
@@ -16940,7 +16892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.786597384266191</v>
+        <v>1.807413119000373</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.798581331744316</v>
@@ -17029,7 +16981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.780405376965357</v>
+        <v>1.805159999136098</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.091139602218682</v>
@@ -17118,7 +17070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.794094299500438</v>
+        <v>1.815025490637944</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.085094220074253</v>
@@ -17207,7 +17159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.783063284264374</v>
+        <v>1.805381136839485</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.141246651305301</v>
@@ -17296,7 +17248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.780895869213932</v>
+        <v>1.80367666819179</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.194489569087778</v>
@@ -17385,7 +17337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.787913676982393</v>
+        <v>1.812829369275913</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.561981416625174</v>
@@ -17474,7 +17426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.801925353814296</v>
+        <v>1.827531459316546</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.081130273796886</v>
@@ -17563,7 +17515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.798042821853741</v>
+        <v>1.822061758641816</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.355069537956993</v>
@@ -17652,7 +17604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.796633647590728</v>
+        <v>1.81787437811019</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.075950150237283</v>
@@ -17741,7 +17693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.792240758197051</v>
+        <v>1.809478769709732</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.288827045948028</v>
@@ -17830,7 +17782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.781875610240286</v>
+        <v>1.794950380537475</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.047942628939945</v>
@@ -17919,7 +17871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.786657816183846</v>
+        <v>1.795129396126127</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.999080558618318</v>
@@ -18008,7 +17960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.797818381801833</v>
+        <v>1.807519767712117</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.425814378111065</v>
@@ -18097,7 +18049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.811644022292999</v>
+        <v>1.813198930984423</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.128055943719096</v>
@@ -18186,7 +18138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.814922044614152</v>
+        <v>1.813607804611355</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.83028632917618</v>
@@ -18275,7 +18227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.81515886983425</v>
+        <v>1.811564899793104</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.80639050803439</v>
@@ -18364,7 +18316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.809159853773904</v>
+        <v>1.799568857500137</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.781506885867077</v>
@@ -18453,7 +18405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.793324162073748</v>
+        <v>1.785306961981485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.500962699452629</v>
@@ -18542,7 +18494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.804356069529684</v>
+        <v>1.794987027461586</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.326874258406739</v>
@@ -18631,7 +18583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.808738156339508</v>
+        <v>1.794677583221802</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.905963362519569</v>
@@ -18720,7 +18672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.789412233957996</v>
+        <v>1.775646254513962</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.294726353657834</v>
@@ -18809,7 +18761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.790627935954152</v>
+        <v>1.777514484951559</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.240923574782374</v>
@@ -18898,7 +18850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.773760411332185</v>
+        <v>1.763048668501924</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.428271470983212</v>
@@ -18987,7 +18939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.777599653911129</v>
+        <v>1.767886034204251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.12021263679007</v>
@@ -19076,7 +19028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.786716644553048</v>
+        <v>1.783274768059119</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.364959458115387</v>
@@ -19165,7 +19117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796952715982422</v>
+        <v>1.794010123857735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.165686782186861</v>
@@ -19451,7 +19403,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.611972038819182</v>
+        <v>1.627470139469748</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.825592059966993</v>
@@ -19540,7 +19492,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.599945497590478</v>
+        <v>1.610523861896927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.805808345182363</v>
@@ -19629,7 +19581,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.593363588081159</v>
+        <v>1.612429011644179</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.782524161743599</v>
@@ -19718,7 +19670,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.595011187787634</v>
+        <v>1.612054903482566</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.52329439426039</v>
@@ -19807,7 +19759,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607857915911678</v>
+        <v>1.622496983926658</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.747977797164324</v>
@@ -19896,7 +19848,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618112941041077</v>
+        <v>1.628965025175704</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.649355529403653</v>
@@ -19985,7 +19937,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.648075855137962</v>
+        <v>1.652471082159245</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.702515084032923</v>
@@ -20074,7 +20026,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.657328015744737</v>
+        <v>1.655993862396598</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.75314510749817</v>
@@ -20163,7 +20115,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.651926656260454</v>
+        <v>1.654926995548311</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.680227437700292</v>
@@ -20252,7 +20204,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.658050915366882</v>
+        <v>1.657283106365966</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.655497405806811</v>
@@ -20341,7 +20293,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.663136901469966</v>
+        <v>1.664116615792224</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.710447501149486</v>
@@ -20430,7 +20382,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.667582038134137</v>
+        <v>1.667925290570615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.581267617574165</v>
@@ -20519,7 +20471,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.709382946478046</v>
+        <v>1.706993417783114</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.992245819793132</v>
@@ -20608,7 +20560,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.723475117670415</v>
+        <v>1.717265541126919</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.158146574633116</v>
@@ -20697,7 +20649,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.749842778216176</v>
+        <v>1.746579703914324</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.047480470008822</v>
@@ -20786,7 +20738,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.759072085453371</v>
+        <v>1.753054899363705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.017390474005885</v>
@@ -20875,7 +20827,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.771986014649981</v>
+        <v>1.759764133946462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.947222240190777</v>
@@ -20964,7 +20916,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.781759947696796</v>
+        <v>1.769299070190923</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.377921225791609</v>
@@ -21053,7 +21005,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.79795266622052</v>
+        <v>1.782657652674095</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.489447958253634</v>
@@ -21142,7 +21094,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.799706575804919</v>
+        <v>1.784944757196582</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.013507575409019</v>
@@ -21231,7 +21183,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.800126650917776</v>
+        <v>1.783860582257135</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.469342119883813</v>
@@ -21320,7 +21272,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780454837497135</v>
+        <v>1.779872425129822</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.245116088503587</v>
@@ -21409,7 +21361,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.794124773200441</v>
+        <v>1.794524856408202</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.529841779752089</v>
@@ -21498,7 +21450,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.786640322564919</v>
+        <v>1.790591389604631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.212167750061247</v>
@@ -21587,7 +21539,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.790422932101501</v>
+        <v>1.794143817840339</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.588288850766762</v>
@@ -21676,7 +21628,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.782725171045199</v>
+        <v>1.788103474262367</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.245929333106328</v>
@@ -21765,7 +21717,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.773303825376701</v>
+        <v>1.782728734524402</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.448347751851515</v>
@@ -21854,7 +21806,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.782055237949177</v>
+        <v>1.787959851947004</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.532115910349611</v>
@@ -21943,7 +21895,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.760138682472</v>
+        <v>1.772233326921316</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.631136662154095</v>
@@ -22032,7 +21984,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749559587578639</v>
+        <v>1.763071526440442</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.485964984562785</v>
@@ -22121,7 +22073,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.729662912126424</v>
+        <v>1.748727914123585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.463070999654923</v>
@@ -22210,7 +22162,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742337672095016</v>
+        <v>1.764920066615404</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.390462683719785</v>
@@ -22299,7 +22251,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.732245939554765</v>
+        <v>1.750495455361382</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.527697889837195</v>
@@ -22388,7 +22340,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727835915927923</v>
+        <v>1.745273228395212</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.464737608284496</v>
@@ -22477,7 +22429,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723545419524708</v>
+        <v>1.737079095104117</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.264441618671957</v>
@@ -22566,7 +22518,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.730427637719168</v>
+        <v>1.739849877388142</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.901499781648569</v>
@@ -22655,7 +22607,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736749048760936</v>
+        <v>1.74121324338217</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.364989368685579</v>
@@ -22744,7 +22696,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.750584678771069</v>
+        <v>1.751908676746558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.42727408610813</v>
@@ -22833,7 +22785,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73609989413064</v>
+        <v>1.736933104527176</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.634552239517352</v>
@@ -22922,7 +22874,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.726046309548673</v>
+        <v>1.729771682106954</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.512165439446091</v>
@@ -23011,7 +22963,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.738806417194769</v>
+        <v>1.737589510442749</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.35055465080854</v>
@@ -23100,7 +23052,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.747739613571029</v>
+        <v>1.746770287952532</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.547951491964257</v>
@@ -23189,7 +23141,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.74639538113456</v>
+        <v>1.74413569177143</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.452038443068441</v>
@@ -23278,7 +23230,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770871794871994</v>
+        <v>1.761546645815237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.665684143148964</v>
@@ -23367,7 +23319,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.774342033719287</v>
+        <v>1.764086394409965</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.546001577776983</v>
@@ -23456,7 +23408,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.796572730753862</v>
+        <v>1.780362283296373</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.264818846079796</v>
@@ -23545,7 +23497,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.802391905945756</v>
+        <v>1.78092569015429</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.580581993549007</v>
@@ -23634,7 +23586,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.805804118670539</v>
+        <v>1.787520672708326</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.346819737156613</v>
@@ -23723,7 +23675,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.805831114239353</v>
+        <v>1.793333318708924</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.111933242452479</v>
@@ -23812,7 +23764,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.803482506780846</v>
+        <v>1.795103688778288</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.758207028843917</v>
@@ -23901,7 +23853,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.792396419637025</v>
+        <v>1.784910407099705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.591058292570568</v>
@@ -24187,7 +24139,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.191262891152652</v>
+        <v>1.188247209871336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.265341233845308</v>
@@ -24276,7 +24228,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.202080804959313</v>
+        <v>1.194725931635699</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.041192571216232</v>
@@ -24365,7 +24317,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.204157464878965</v>
+        <v>1.202493373911679</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.226716872888708</v>
@@ -24454,7 +24406,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.194656135949218</v>
+        <v>1.190767272700569</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.362593993612094</v>
@@ -24543,7 +24495,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.18808707959665</v>
+        <v>1.185091934506439</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.290198911837817</v>
@@ -24632,7 +24584,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.193607187824753</v>
+        <v>1.189237178580957</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.211442473378271</v>
@@ -24721,7 +24673,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.206582418086472</v>
+        <v>1.200680898401013</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.212405364935815</v>
@@ -24810,7 +24762,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.214927257542419</v>
+        <v>1.210605299568946</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.101809989486207</v>
@@ -24899,7 +24851,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.214197783025276</v>
+        <v>1.211448907110331</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.071165328386019</v>
@@ -24988,7 +24940,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.229803814036287</v>
+        <v>1.227045877835474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.061440459018673</v>
@@ -25077,7 +25029,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.218937886212856</v>
+        <v>1.209265024014712</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.205596914882408</v>
@@ -25166,7 +25118,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.214201168033528</v>
+        <v>1.20315176263673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.193230643598951</v>
@@ -25255,7 +25207,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.228557791795122</v>
+        <v>1.218272314905679</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.135986218929579</v>
@@ -25344,7 +25296,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.239717703599901</v>
+        <v>1.228586157868883</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.933677117556196</v>
@@ -25433,7 +25385,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.266045656492819</v>
+        <v>1.259624136321179</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.138215877310621</v>
@@ -25522,7 +25474,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.260734345788321</v>
+        <v>1.256368282094113</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.149417394696672</v>
@@ -25611,7 +25563,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.261689080560068</v>
+        <v>1.253966176251551</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.035450017828605</v>
@@ -25700,7 +25652,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.271306098930077</v>
+        <v>1.264634532131446</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.143979899350015</v>
@@ -25789,7 +25741,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.307899053509317</v>
+        <v>1.305212794479832</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.039691834767658</v>
@@ -25878,7 +25830,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.31916827013798</v>
+        <v>1.315632972817102</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.044208562615403</v>
@@ -25967,7 +25919,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.316167561624424</v>
+        <v>1.310549495561986</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.067848111391188</v>
@@ -26056,7 +26008,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.311573459378713</v>
+        <v>1.306782572320942</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.045669024214816</v>
@@ -26145,7 +26097,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.302957633639032</v>
+        <v>1.297974137392661</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.078191523246026</v>
@@ -26234,7 +26186,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.304895856883526</v>
+        <v>1.302594286156122</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.085475129957351</v>
@@ -26323,7 +26275,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.310549399393184</v>
+        <v>1.306479918452802</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.94507045887906</v>
@@ -26412,7 +26364,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.310545877240118</v>
+        <v>1.306447341053326</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.957319260309376</v>
@@ -26501,7 +26453,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.298760182245786</v>
+        <v>1.298216112090057</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.165748839696852</v>
@@ -26590,7 +26542,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.315827957070489</v>
+        <v>1.317740227411643</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.953383762863622</v>
@@ -26679,7 +26631,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.312261276824198</v>
+        <v>1.309470557596869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.035027820349813</v>
@@ -26768,7 +26720,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.300987860677986</v>
+        <v>1.299603612473986</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.103839573634287</v>
@@ -26857,7 +26809,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.308626202886398</v>
+        <v>1.307375725670428</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.201168746707932</v>
@@ -26946,7 +26898,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.307922983727928</v>
+        <v>1.307392563686242</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.123882287843009</v>
@@ -27035,7 +26987,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.306416742535282</v>
+        <v>1.306731276885993</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.098645268417964</v>
@@ -27124,7 +27076,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.299518463557967</v>
+        <v>1.299611202774067</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.013849960433934</v>
@@ -27213,7 +27165,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.29194090446095</v>
+        <v>1.288943073938068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.078564269702585</v>
@@ -27302,7 +27254,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.285036374774282</v>
+        <v>1.282353377120874</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.15816249374822</v>
@@ -27391,7 +27343,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.278811093175199</v>
+        <v>1.277268146413048</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.126231060582465</v>
@@ -27480,7 +27432,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.284861643647881</v>
+        <v>1.28272886869676</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.031069137183025</v>
@@ -27569,7 +27521,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.299769605978355</v>
+        <v>1.294414228497503</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.127391621156165</v>
@@ -27658,7 +27610,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.300783392190942</v>
+        <v>1.294453788198105</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.077215774174027</v>
@@ -27747,7 +27699,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.305049725910335</v>
+        <v>1.300245796636848</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.162311896925083</v>
@@ -27836,7 +27788,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.333219655378369</v>
+        <v>1.330509548011565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.186207314918273</v>
@@ -27925,7 +27877,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.31972601127787</v>
+        <v>1.316479605672997</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.207335067869182</v>
@@ -28014,7 +27966,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.330289635530917</v>
+        <v>1.328427271442812</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.181907054070765</v>
@@ -28103,7 +28055,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.337279151956904</v>
+        <v>1.335501447466164</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.273977537674281</v>
@@ -28192,7 +28144,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.338572187953038</v>
+        <v>1.33809841555121</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.147478037346416</v>
@@ -28281,7 +28233,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.366645572230567</v>
+        <v>1.366482150943507</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.129886677648248</v>
@@ -28370,7 +28322,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.343350878875701</v>
+        <v>1.343085569261441</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.404943424664422</v>
@@ -28459,7 +28411,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.355070824687631</v>
+        <v>1.354269319362373</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.467925679288401</v>
@@ -28548,7 +28500,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37752966331633</v>
+        <v>1.380312717910551</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.32654679307325</v>
@@ -28637,7 +28589,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.390588353800712</v>
+        <v>1.397378405229724</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.255353115823759</v>
@@ -28923,7 +28875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315116746477178</v>
+        <v>1.341074669995222</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.98976594823514</v>
@@ -29012,7 +28964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.321943426132471</v>
+        <v>1.343698396552944</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.935870434113256</v>
@@ -29101,7 +29053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.323687188573351</v>
+        <v>1.347018373755547</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.966998708060991</v>
@@ -29190,7 +29142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.308903966700148</v>
+        <v>1.329481282348577</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.984883490270745</v>
@@ -29279,7 +29231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.328675166803574</v>
+        <v>1.350559217690933</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.999179038009652</v>
@@ -29368,7 +29320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.416492894063125</v>
+        <v>1.440277875530781</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.42821956673072</v>
@@ -29457,7 +29409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.452213469678991</v>
+        <v>1.474523294052514</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.666331108106502</v>
@@ -29546,7 +29498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.482878638997193</v>
+        <v>1.50989418458065</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.470610579009945</v>
@@ -29635,7 +29587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512486404589641</v>
+        <v>1.54215122641635</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.576408535732236</v>
@@ -29724,7 +29676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.542847411424394</v>
+        <v>1.573035797728127</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.580872943216451</v>
@@ -29813,7 +29765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555964580032441</v>
+        <v>1.585509696483328</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.791862377751805</v>
@@ -29902,7 +29854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566379663494006</v>
+        <v>1.596847436509017</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.747777973008644</v>
@@ -29991,7 +29943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593164586308071</v>
+        <v>1.621507160674995</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.638667610927882</v>
@@ -30080,7 +30032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.628254481915312</v>
+        <v>1.654894357843743</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.46231183278476</v>
@@ -30169,7 +30121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677346361693661</v>
+        <v>1.702771029750986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.959602735890094</v>
@@ -30258,7 +30210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668380189516879</v>
+        <v>1.693952088876822</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.006066020143141</v>
@@ -30347,7 +30299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683238733093101</v>
+        <v>1.708271146937714</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.741212492158507</v>
@@ -30436,7 +30388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.703000220457401</v>
+        <v>1.729576296059328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.067270248873319</v>
@@ -30525,7 +30477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.753117183228125</v>
+        <v>1.778395601006794</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.856718163211347</v>
@@ -30614,7 +30566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.765740942423194</v>
+        <v>1.788938015110054</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.888354757575967</v>
@@ -30703,7 +30655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.771249433233095</v>
+        <v>1.801045006533317</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.024726334019426</v>
@@ -30792,7 +30744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.777904593228358</v>
+        <v>1.809198468854905</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.068173916079751</v>
@@ -30881,7 +30833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.767125521948453</v>
+        <v>1.801159607537996</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.275967892935229</v>
@@ -30970,7 +30922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.760303818432061</v>
+        <v>1.797596535413191</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.093115308546929</v>
@@ -31059,7 +31011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.759137762177964</v>
+        <v>1.796463805722266</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.147623456512419</v>
@@ -31148,7 +31100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.763645422382985</v>
+        <v>1.801723926968635</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.604141618003525</v>
@@ -31237,7 +31189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.750664481499882</v>
+        <v>1.793375916624365</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.055387652677163</v>
@@ -31326,7 +31278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.775244320605735</v>
+        <v>1.818601971380224</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.679989971730691</v>
@@ -31415,7 +31367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765801837034712</v>
+        <v>1.80627645624791</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.961475318163662</v>
@@ -31504,7 +31456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.748998792121831</v>
+        <v>1.790803539371253</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.946477176524103</v>
@@ -31593,7 +31545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770530240094736</v>
+        <v>1.812779672651268</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.142311092906434</v>
@@ -31682,7 +31634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775531151066739</v>
+        <v>1.814779648774671</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.058176611364742</v>
@@ -31771,7 +31723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.772687535484806</v>
+        <v>1.810450951595404</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.095848610900429</v>
@@ -31860,7 +31812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.773176994329252</v>
+        <v>1.810821111420054</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.814983799953576</v>
@@ -31949,7 +31901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78178036200853</v>
+        <v>1.819962779498394</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.949461817262514</v>
@@ -32038,7 +31990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.766088244724535</v>
+        <v>1.801194537296296</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.000484202808917</v>
@@ -32127,7 +32079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.768799964519517</v>
+        <v>1.802360113108561</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.15675554788712</v>
@@ -32216,7 +32168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.7859490224174</v>
+        <v>1.818054547691552</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.974846661928487</v>
@@ -32305,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.812873444680259</v>
+        <v>1.835179612222023</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.021266590722647</v>
@@ -32394,7 +32346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817737734497761</v>
+        <v>1.834531748748427</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.333626257489093</v>
@@ -32483,7 +32435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.807862776868588</v>
+        <v>1.824857666541699</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.011100141115636</v>
@@ -32572,7 +32524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.831291403430029</v>
+        <v>1.846305485250745</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.11078028844485</v>
@@ -32661,7 +32613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.812857675779885</v>
+        <v>1.829759003207914</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.213924258297779</v>
@@ -32750,7 +32702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.832524793163465</v>
+        <v>1.849368893516985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.143318174674941</v>
@@ -32839,7 +32791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.841708044319747</v>
+        <v>1.853751130127398</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.528934598749137</v>
@@ -32928,7 +32880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.817743137147107</v>
+        <v>1.83623705161382</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.448574180840671</v>
@@ -33017,7 +32969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837160082116465</v>
+        <v>1.851648566104198</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.233284219599862</v>
@@ -33106,7 +33058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.805814611995559</v>
+        <v>1.828006247688483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.430120477942387</v>
@@ -33195,7 +33147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.81795380214583</v>
+        <v>1.834509682469351</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.280712410480724</v>
@@ -33284,7 +33236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.825954127721587</v>
+        <v>1.845872643456044</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.520821717904822</v>
@@ -33373,7 +33325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.848209580691764</v>
+        <v>1.868485096888935</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.576492259159409</v>
